--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value646.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value646.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.296169129098485</v>
+        <v>1.189548850059509</v>
       </c>
       <c r="B1">
-        <v>2.300093030396683</v>
+        <v>2.34879732131958</v>
       </c>
       <c r="C1">
-        <v>2.914901264541303</v>
+        <v>3.820623397827148</v>
       </c>
       <c r="D1">
-        <v>3.351551590292198</v>
+        <v>3.101420402526855</v>
       </c>
       <c r="E1">
-        <v>1.720640479748041</v>
+        <v>1.139287352561951</v>
       </c>
     </row>
   </sheetData>
